--- a/AGL_KS_mod4/AGL_KS_mod4_task1_online.xlsx
+++ b/AGL_KS_mod4/AGL_KS_mod4_task1_online.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
-    <sheet name="AGL_KS_mod4_online_knowlton_agl" sheetId="1" r:id="rId1"/>
+    <sheet name="task" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
